--- a/data/relationships/relative_preferences.xlsx
+++ b/data/relationships/relative_preferences.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanda\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanda\Work\spatial_computing\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{286062E4-6AD9-4873-A185-FE9795733A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF1CB36-B188-45FB-BCC7-468507C3BA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>Facade connection</t>
   </si>
   <si>
-    <t>sunlight Acces</t>
-  </si>
-  <si>
     <t>Noise Approval</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Football field</t>
+  </si>
+  <si>
+    <t>Sunlight Access</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,22 +820,22 @@
         <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1538,7 +1538,7 @@
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="14">
         <v>0</v>

--- a/data/relationships/relative_preferences.xlsx
+++ b/data/relationships/relative_preferences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanda\Work\spatial_computing\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF1CB36-B188-45FB-BCC7-468507C3BA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D47DC8-00B6-47F5-8BB9-75EB06968A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
   </bookViews>
@@ -36,109 +36,109 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>Student Housing</t>
-  </si>
-  <si>
-    <t>Co-cooking A</t>
-  </si>
-  <si>
-    <t>Assisted Living</t>
-  </si>
-  <si>
-    <t>Co-cooking B</t>
-  </si>
-  <si>
-    <t>Starter Housing</t>
-  </si>
-  <si>
-    <t>Co-cooking C</t>
-  </si>
-  <si>
-    <t>Co-working</t>
-  </si>
-  <si>
-    <t>Community center</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
-    <t>Cinematheque</t>
-  </si>
-  <si>
-    <t>Laundry</t>
-  </si>
-  <si>
-    <t>Fab-labs</t>
-  </si>
-  <si>
-    <t>Workspaces/start-ups</t>
-  </si>
-  <si>
-    <t>Workshop</t>
-  </si>
-  <si>
-    <t>Car Parking</t>
-  </si>
-  <si>
-    <t>Bike Parking</t>
-  </si>
-  <si>
-    <t>Shops</t>
-  </si>
-  <si>
-    <t>Grocery</t>
-  </si>
-  <si>
-    <t>Gym</t>
-  </si>
-  <si>
-    <t>Medicine shop</t>
-  </si>
-  <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
-    <t>Vegetation</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>Lobby/entrance</t>
-  </si>
-  <si>
-    <t>Communal Garden</t>
-  </si>
-  <si>
-    <t>Arcade</t>
-  </si>
-  <si>
-    <t>Biergarten</t>
-  </si>
-  <si>
-    <t>Facade connection</t>
-  </si>
-  <si>
-    <t>Noise Approval</t>
-  </si>
-  <si>
-    <t>Proximity to ground floor</t>
-  </si>
-  <si>
-    <t>sky view factor</t>
-  </si>
-  <si>
-    <t>Penthousefactor</t>
-  </si>
-  <si>
-    <t>Streetsight</t>
-  </si>
-  <si>
-    <t>Football field</t>
-  </si>
-  <si>
-    <t>Sunlight Access</t>
+    <t>sunlight_access</t>
+  </si>
+  <si>
+    <t>noise_approval</t>
+  </si>
+  <si>
+    <t>proximity_to_ground_floor</t>
+  </si>
+  <si>
+    <t>sky_view_factor</t>
+  </si>
+  <si>
+    <t>penthouse_factor</t>
+  </si>
+  <si>
+    <t>street_sight</t>
+  </si>
+  <si>
+    <t>student_housing</t>
+  </si>
+  <si>
+    <t>co_cooking_A</t>
+  </si>
+  <si>
+    <t>assisted_living</t>
+  </si>
+  <si>
+    <t>co_cooking_B</t>
+  </si>
+  <si>
+    <t>starter_housing</t>
+  </si>
+  <si>
+    <t>co_cooking_C</t>
+  </si>
+  <si>
+    <t>co_working</t>
+  </si>
+  <si>
+    <t>community_center</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>cinematheque</t>
+  </si>
+  <si>
+    <t>laundry</t>
+  </si>
+  <si>
+    <t>fab_labs</t>
+  </si>
+  <si>
+    <t>startups</t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+  <si>
+    <t>car_park</t>
+  </si>
+  <si>
+    <t>bike_park</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>gym</t>
+  </si>
+  <si>
+    <t>drug_store</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>vegetation</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>lobby</t>
+  </si>
+  <si>
+    <t>communal_garden</t>
+  </si>
+  <si>
+    <t>arcade</t>
+  </si>
+  <si>
+    <t>biergarten</t>
+  </si>
+  <si>
+    <t>football_field</t>
+  </si>
+  <si>
+    <t>facade_connection</t>
   </si>
 </sst>
 </file>
@@ -809,38 +809,38 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="123.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" s="11">
         <v>0.7</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" s="11">
         <v>0.5</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" s="11">
         <v>0.3</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" s="11">
         <v>0</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B12" s="11">
         <v>0</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B13" s="11">
         <v>0</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B15" s="11">
         <v>0.3</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B17" s="11">
         <v>0</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B19" s="11">
         <v>0</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B20" s="11">
         <v>0.2</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B21" s="11">
         <v>0</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B22" s="11">
         <v>0.3</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B23" s="11">
         <v>0</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B24" s="11">
         <v>0</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B25" s="11">
         <v>0.5</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B26" s="11">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B27" s="11">
         <v>0</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B28" s="11">
         <v>0</v>

--- a/data/relationships/relative_preferences.xlsx
+++ b/data/relationships/relative_preferences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thijs Kroft\Documents\Bouwkunde\Minor Spatial Computing\spatial_computing\spatial_computing-2\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9112BFB5-CB2E-4090-8DC0-F9491E1B86E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF4F629-5403-4344-B2A2-072F06B8C56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
   </bookViews>
@@ -171,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -384,18 +390,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,6 +397,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -722,12 +728,12 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
@@ -738,39 +744,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5">
@@ -796,10 +802,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="7">
@@ -825,10 +831,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="7">
@@ -854,10 +860,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7">
@@ -883,10 +889,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="7">
@@ -912,10 +918,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="7">
@@ -941,10 +947,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7">
@@ -970,10 +976,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="7">
@@ -999,10 +1005,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="7">
@@ -1028,10 +1034,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="7">
@@ -1057,10 +1063,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="7">
@@ -1086,10 +1092,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="7">
@@ -1115,10 +1121,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7">
@@ -1144,10 +1150,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="7">
@@ -1173,10 +1179,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="7">
@@ -1202,10 +1208,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="7">
@@ -1231,10 +1237,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="7">
@@ -1260,10 +1266,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="7">
@@ -1289,10 +1295,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="7">
@@ -1318,10 +1324,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="7">
@@ -1347,10 +1353,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="7">
@@ -1376,10 +1382,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="7">
@@ -1405,10 +1411,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="7">
@@ -1434,10 +1440,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="7">
@@ -1463,10 +1469,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="7">

--- a/data/relationships/relative_preferences.xlsx
+++ b/data/relationships/relative_preferences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thijs Kroft\Documents\Bouwkunde\Minor Spatial Computing\spatial_computing\spatial_computing-2\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF4F629-5403-4344-B2A2-072F06B8C56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335CC29A-C021-4D3B-B669-5663F90648F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
   </bookViews>
@@ -728,19 +728,20 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/data/relationships/relative_preferences.xlsx
+++ b/data/relationships/relative_preferences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thijs Kroft\Documents\Bouwkunde\Minor Spatial Computing\spatial_computing\spatial_computing-2\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335CC29A-C021-4D3B-B669-5663F90648F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D4484-46A1-4E85-BAB9-695993740ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>sunlight_access</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>space_name</t>
-  </si>
-  <si>
-    <t>space_id</t>
   </si>
 </sst>
 </file>
@@ -203,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -364,11 +361,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -409,6 +477,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691859B3-309C-4810-BC4D-A39C70B98C25}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,761 +831,735 @@
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="13" t="s">
         <v>31</v>
       </c>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="18">
         <v>0.8</v>
       </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="I3" s="2"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="8">
         <v>0.6</v>
       </c>
-      <c r="H2" s="6">
+      <c r="F9" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
         <v>0.5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="F10" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="E14" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="8">
         <v>0.5</v>
       </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
         <v>0.4</v>
       </c>
-      <c r="G8" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
         <v>0.4</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7">
         <v>0.2</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>0.2</v>
       </c>
       <c r="D20" s="8">
         <v>0.2</v>
       </c>
       <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
         <v>0.2</v>
       </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="I22" s="2"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
         <v>0.1</v>
       </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="I25" s="2"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0</v>
+      </c>
+      <c r="D26" s="20">
         <v>0.4</v>
       </c>
-      <c r="E22" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>22</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E26" s="20">
+        <v>0</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1508,7 +1569,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1518,7 +1579,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>

--- a/data/relationships/relative_preferences.xlsx
+++ b/data/relationships/relative_preferences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thijs Kroft\Documents\Bouwkunde\Minor Spatial Computing\spatial_computing\spatial_computing-2\data\relationships\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanda\Work\spatial_computing\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D4484-46A1-4E85-BAB9-695993740ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE0B580-9B7D-45AE-9BF9-87BAC0897E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>sunlight_access</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>space_name</t>
+  </si>
+  <si>
+    <t>football_field</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,12 +498,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -815,7 +815,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,7 +828,7 @@
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -856,7 +856,9 @@
       <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22"/>
+      <c r="I1" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -884,7 +886,9 @@
       <c r="H2" s="17">
         <v>0.9</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="17">
+        <v>0.7</v>
+      </c>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -912,7 +916,9 @@
       <c r="H3" s="18">
         <v>0.8</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="18">
+        <v>0.7</v>
+      </c>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -940,7 +946,9 @@
       <c r="H4" s="18">
         <v>0.9</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
       <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -968,7 +976,9 @@
       <c r="H5" s="18">
         <v>0.8</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -996,7 +1006,9 @@
       <c r="H6" s="18">
         <v>0.9</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="18">
+        <v>0.5</v>
+      </c>
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1024,7 +1036,9 @@
       <c r="H7" s="18">
         <v>0.8</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="18">
+        <v>0.5</v>
+      </c>
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1052,7 +1066,9 @@
       <c r="H8" s="18">
         <v>0.3</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1080,7 +1096,9 @@
       <c r="H9" s="18">
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="18">
+        <v>0.8</v>
+      </c>
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1108,7 +1126,9 @@
       <c r="H10" s="18">
         <v>0</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
       <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1136,7 +1156,9 @@
       <c r="H11" s="18">
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1164,7 +1186,9 @@
       <c r="H12" s="18">
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
       <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1192,7 +1216,9 @@
       <c r="H13" s="18">
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1220,7 +1246,9 @@
       <c r="H14" s="18">
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1248,7 +1276,9 @@
       <c r="H15" s="18">
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
       <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1276,7 +1306,9 @@
       <c r="H16" s="18">
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1304,7 +1336,9 @@
       <c r="H17" s="18">
         <v>0</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
       <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1332,7 +1366,9 @@
       <c r="H18" s="18">
         <v>0.2</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="18">
+        <v>0</v>
+      </c>
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1360,7 +1396,9 @@
       <c r="H19" s="18">
         <v>0</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1388,7 +1426,9 @@
       <c r="H20" s="18">
         <v>0.3</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1416,7 +1456,9 @@
       <c r="H21" s="18">
         <v>0</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
       <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1444,7 +1486,9 @@
       <c r="H22" s="18">
         <v>0.2</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="18">
+        <v>0</v>
+      </c>
       <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1472,7 +1516,9 @@
       <c r="H23" s="18">
         <v>0</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1500,7 +1546,9 @@
       <c r="H24" s="18">
         <v>0.7</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1528,7 +1576,9 @@
       <c r="H25" s="18">
         <v>0.1</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1556,7 +1606,9 @@
       <c r="H26" s="21">
         <v>0</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="21">
+        <v>0</v>
+      </c>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
